--- a/data/financial_statements/sofp/AZO.xlsx
+++ b/data/financial_statements/sofp/AZO.xlsx
@@ -14,9 +14,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,147 +616,147 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="L1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="M1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="W1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="X1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>322000000</v>
+        <v>269790000</v>
       </c>
       <c r="C2">
-        <v>314000000</v>
+        <v>264380000</v>
       </c>
       <c r="D2">
         <v>263044000</v>
@@ -642,10 +765,10 @@
         <v>321000000</v>
       </c>
       <c r="F2">
-        <v>280000000</v>
+        <v>239423000</v>
       </c>
       <c r="G2">
-        <v>1017000000</v>
+        <v>961125000</v>
       </c>
       <c r="H2">
         <v>1171335000</v>
@@ -760,14 +883,14 @@
       </c>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>502000000</v>
+        <v>501798000</v>
       </c>
       <c r="C3">
-        <v>505000000</v>
+        <v>504886000</v>
       </c>
       <c r="D3">
         <v>439820000</v>
@@ -776,10 +899,10 @@
         <v>440000000</v>
       </c>
       <c r="F3">
-        <v>406000000</v>
+        <v>405585000</v>
       </c>
       <c r="G3">
-        <v>379000000</v>
+        <v>379276000</v>
       </c>
       <c r="H3">
         <v>378392000</v>
@@ -894,14 +1017,14 @@
       </c>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>5608000000</v>
+        <v>5607690000</v>
       </c>
       <c r="C4">
-        <v>5638000000</v>
+        <v>5638004000</v>
       </c>
       <c r="D4">
         <v>5313114000</v>
@@ -910,10 +1033,10 @@
         <v>5313000000</v>
       </c>
       <c r="F4">
-        <v>5031000000</v>
+        <v>5031222000</v>
       </c>
       <c r="G4">
-        <v>4768000000</v>
+        <v>4768258000</v>
       </c>
       <c r="H4">
         <v>4639813000</v>
@@ -1028,14 +1151,14 @@
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>202000000</v>
+        <v>253840000</v>
       </c>
       <c r="C5">
-        <v>171000000</v>
+        <v>220714000</v>
       </c>
       <c r="D5">
         <v>238743000</v>
@@ -1044,10 +1167,10 @@
         <v>180000000</v>
       </c>
       <c r="F5">
-        <v>187000000</v>
+        <v>227540000</v>
       </c>
       <c r="G5">
-        <v>185000000</v>
+        <v>240487000</v>
       </c>
       <c r="H5">
         <v>225763000</v>
@@ -1162,14 +1285,14 @@
       </c>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>6633000000</v>
+        <v>6633118000</v>
       </c>
       <c r="C6">
-        <v>6628000000</v>
+        <v>6627984000</v>
       </c>
       <c r="D6">
         <v>6254721000</v>
@@ -1178,10 +1301,10 @@
         <v>6255000000</v>
       </c>
       <c r="F6">
-        <v>5904000000</v>
+        <v>5903770000</v>
       </c>
       <c r="G6">
-        <v>6349000000</v>
+        <v>6349146000</v>
       </c>
       <c r="H6">
         <v>6415303000</v>
@@ -1296,14 +1419,14 @@
       </c>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B7">
-        <v>8117000000</v>
+        <v>5194546000</v>
       </c>
       <c r="C7">
-        <v>8089000000</v>
+        <v>5170419000</v>
       </c>
       <c r="D7">
         <v>4971626000</v>
@@ -1312,10 +1435,10 @@
         <v>7736000000</v>
       </c>
       <c r="F7">
-        <v>7623000000</v>
+        <v>4879079000</v>
       </c>
       <c r="G7">
-        <v>7575000000</v>
+        <v>4857928000</v>
       </c>
       <c r="H7">
         <v>4856891000</v>
@@ -1430,8 +1553,8 @@
       </c>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B8">
         <v>67000000</v>
@@ -1471,14 +1594,14 @@
       </c>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>303000000</v>
+        <v>302645000</v>
       </c>
       <c r="C9">
-        <v>303000000</v>
+        <v>302645000</v>
       </c>
       <c r="D9">
         <v>302645000</v>
@@ -1487,10 +1610,10 @@
         <v>303000000</v>
       </c>
       <c r="F9">
-        <v>303000000</v>
+        <v>302645000</v>
       </c>
       <c r="G9">
-        <v>303000000</v>
+        <v>302645000</v>
       </c>
       <c r="H9">
         <v>302645000</v>
@@ -1605,8 +1728,8 @@
       </c>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B10">
         <v>53444000</v>
@@ -1730,14 +1853,14 @@
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B11">
-        <v>143000000</v>
+        <v>210032000</v>
       </c>
       <c r="C11">
-        <v>140000000</v>
+        <v>203131000</v>
       </c>
       <c r="D11">
         <v>186235000</v>
@@ -1746,10 +1869,10 @@
         <v>125000000</v>
       </c>
       <c r="F11">
-        <v>128000000</v>
+        <v>208478000</v>
       </c>
       <c r="G11">
-        <v>132000000</v>
+        <v>193500000</v>
       </c>
       <c r="H11">
         <v>181605000</v>
@@ -1864,8 +1987,8 @@
       </c>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B12">
         <v>8682815000</v>
@@ -1992,14 +2115,14 @@
       </c>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>15316000000</v>
+        <v>15315930000</v>
       </c>
       <c r="C13">
-        <v>15275000000</v>
+        <v>15275040000</v>
       </c>
       <c r="D13">
         <v>14520570000</v>
@@ -2008,10 +2131,10 @@
         <v>14521000000</v>
       </c>
       <c r="F13">
-        <v>14078000000</v>
+        <v>14078470000</v>
       </c>
       <c r="G13">
-        <v>14461000000</v>
+        <v>14460950000</v>
       </c>
       <c r="H13">
         <v>14516200000</v>
@@ -2126,14 +2249,14 @@
       </c>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>7346000000</v>
+        <v>7345981000</v>
       </c>
       <c r="C14">
-        <v>7301000000</v>
+        <v>7301347000</v>
       </c>
       <c r="D14">
         <v>6793205000</v>
@@ -2142,10 +2265,10 @@
         <v>6793000000</v>
       </c>
       <c r="F14">
-        <v>6379000000</v>
+        <v>6378606000</v>
       </c>
       <c r="G14">
-        <v>6171000000</v>
+        <v>6171344000</v>
       </c>
       <c r="H14">
         <v>6013924000</v>
@@ -2260,8 +2383,8 @@
       </c>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B15">
         <v>982560000</v>
@@ -2385,8 +2508,8 @@
       </c>
     </row>
     <row r="16" spans="1:44">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B16">
         <v>272000000</v>
@@ -2401,10 +2524,10 @@
         <v>269000000</v>
       </c>
       <c r="F16">
-        <v>269000000</v>
+        <v>268921000</v>
       </c>
       <c r="G16">
-        <v>764000000</v>
+        <v>500000000</v>
       </c>
       <c r="H16">
         <v>827000000</v>
@@ -2462,8 +2585,8 @@
       </c>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B17">
         <v>108781000</v>
@@ -2587,8 +2710,8 @@
       </c>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AG18">
         <v>260825000</v>
@@ -2628,8 +2751,8 @@
       </c>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B19">
         <v>983000000</v>
@@ -2669,14 +2792,14 @@
       </c>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B20">
-        <v>8709000000</v>
+        <v>8708989000</v>
       </c>
       <c r="C20">
-        <v>8588000000</v>
+        <v>8588393000</v>
       </c>
       <c r="D20">
         <v>8064076000</v>
@@ -2685,10 +2808,10 @@
         <v>8064000000</v>
       </c>
       <c r="F20">
-        <v>7685000000</v>
+        <v>7684645000</v>
       </c>
       <c r="G20">
-        <v>8088000000</v>
+        <v>8087893000</v>
       </c>
       <c r="H20">
         <v>7369754000</v>
@@ -2803,14 +2926,14 @@
       </c>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B21">
-        <v>9167000000</v>
+        <v>6328344000</v>
       </c>
       <c r="C21">
-        <v>9177000000</v>
+        <v>6122092000</v>
       </c>
       <c r="D21">
         <v>6057444000</v>
@@ -2819,10 +2942,10 @@
         <v>8717000000</v>
       </c>
       <c r="F21">
-        <v>8482000000</v>
+        <v>5840884000</v>
       </c>
       <c r="G21">
-        <v>7396000000</v>
+        <v>4771266000</v>
       </c>
       <c r="H21">
         <v>5269820000</v>
@@ -2937,14 +3060,14 @@
       </c>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B22">
-        <v>496000000</v>
+        <v>549082000</v>
       </c>
       <c r="C22">
-        <v>482000000</v>
+        <v>533884000</v>
       </c>
       <c r="D22">
         <v>418869000</v>
@@ -2953,10 +3076,10 @@
         <v>378000000</v>
       </c>
       <c r="F22">
-        <v>338000000</v>
+        <v>379176000</v>
       </c>
       <c r="G22">
-        <v>315000000</v>
+        <v>355310000</v>
       </c>
       <c r="H22">
         <v>337125000</v>
@@ -3035,14 +3158,14 @@
       </c>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B23">
-        <v>729000000</v>
+        <v>729008000</v>
       </c>
       <c r="C23">
-        <v>514000000</v>
+        <v>731614000</v>
       </c>
       <c r="D23">
         <v>707871000</v>
@@ -3051,10 +3174,10 @@
         <v>708000000</v>
       </c>
       <c r="F23">
-        <v>670000000</v>
+        <v>669690000</v>
       </c>
       <c r="G23">
-        <v>747000000</v>
+        <v>746554000</v>
       </c>
       <c r="H23">
         <v>704194000</v>
@@ -3169,8 +3292,8 @@
       </c>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B24">
         <v>10444870000</v>
@@ -3297,14 +3420,14 @@
       </c>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B25">
-        <v>19154000000</v>
+        <v>19153860000</v>
       </c>
       <c r="C25">
-        <v>18814000000</v>
+        <v>18813960000</v>
       </c>
       <c r="D25">
         <v>17907800000</v>
@@ -3313,10 +3436,10 @@
         <v>17908000000</v>
       </c>
       <c r="F25">
-        <v>17216000000</v>
+        <v>17215950000</v>
       </c>
       <c r="G25">
-        <v>16586000000</v>
+        <v>16585700000</v>
       </c>
       <c r="H25">
         <v>16313740000</v>
@@ -3431,8 +3554,8 @@
       </c>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B26">
         <v>1412650000</v>
@@ -3556,14 +3679,14 @@
       </c>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>208000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>207000</v>
       </c>
       <c r="D27">
         <v>207000</v>
@@ -3572,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>206000</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>231000</v>
       </c>
       <c r="H27">
         <v>230000</v>
@@ -3690,14 +3813,14 @@
       </c>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B28">
-        <v>-791000000</v>
+        <v>-790749000</v>
       </c>
       <c r="C28">
-        <v>-1330000000</v>
+        <v>-1330067000</v>
       </c>
       <c r="D28">
         <v>-2138160000</v>
@@ -3706,10 +3829,10 @@
         <v>-2138000000</v>
       </c>
       <c r="F28">
-        <v>-2731000000</v>
+        <v>-2730731000</v>
       </c>
       <c r="G28">
-        <v>135000000</v>
+        <v>135406000</v>
       </c>
       <c r="H28">
         <v>-419829000</v>
@@ -3824,8 +3947,8 @@
       </c>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B29">
         <v>4162767000</v>
@@ -3949,14 +4072,14 @@
       </c>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B30">
-        <v>-3838000000</v>
+        <v>-3837923000</v>
       </c>
       <c r="C30">
-        <v>-3539000000</v>
+        <v>-3538913000</v>
       </c>
       <c r="D30">
         <v>-3387230000</v>
@@ -3965,10 +4088,10 @@
         <v>-3387000000</v>
       </c>
       <c r="F30">
-        <v>-3137000000</v>
+        <v>-3137477000</v>
       </c>
       <c r="G30">
-        <v>-2125000000</v>
+        <v>-2124750000</v>
       </c>
       <c r="H30">
         <v>-1797536000</v>
@@ -4083,14 +4206,14 @@
       </c>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B31">
-        <v>-3838000000</v>
+        <v>-3837923000</v>
       </c>
       <c r="C31">
-        <v>-3539000000</v>
+        <v>-3538913000</v>
       </c>
       <c r="D31">
         <v>-3387230000</v>
@@ -4099,10 +4222,10 @@
         <v>-3387000000</v>
       </c>
       <c r="F31">
-        <v>-3137000000</v>
+        <v>-3137477000</v>
       </c>
       <c r="G31">
-        <v>-2125000000</v>
+        <v>-2124750000</v>
       </c>
       <c r="H31">
         <v>-1797536000</v>
@@ -4217,8 +4340,8 @@
       </c>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B32">
         <v>15315930000</v>
@@ -4345,8 +4468,8 @@
       </c>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B33">
         <v>18797000</v>
@@ -4473,8 +4596,8 @@
       </c>
     </row>
     <row r="34" spans="1:44">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B34">
         <v>-4140568000</v>
@@ -4601,14 +4724,14 @@
       </c>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B35">
-        <v>9117000000</v>
+        <v>6330554000</v>
       </c>
       <c r="C35">
-        <v>9199000000</v>
+        <v>6193712000</v>
       </c>
       <c r="D35">
         <v>6063375000</v>
@@ -4617,10 +4740,10 @@
         <v>8665000000</v>
       </c>
       <c r="F35">
-        <v>8471000000</v>
+        <v>5870382000</v>
       </c>
       <c r="G35">
-        <v>7143000000</v>
+        <v>4310141000</v>
       </c>
       <c r="H35">
         <v>4925485000</v>
@@ -4735,14 +4858,14 @@
       </c>
     </row>
     <row r="36" spans="1:44">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B36">
-        <v>9439000000</v>
+        <v>6600344000</v>
       </c>
       <c r="C36">
-        <v>9513000000</v>
+        <v>6458092000</v>
       </c>
       <c r="D36">
         <v>6326419000</v>
@@ -4751,10 +4874,10 @@
         <v>8986000000</v>
       </c>
       <c r="F36">
-        <v>8751000000</v>
+        <v>6109805000</v>
       </c>
       <c r="G36">
-        <v>8160000000</v>
+        <v>5271266000</v>
       </c>
       <c r="H36">
         <v>6096820000</v>
